--- a/templates/dev_templates/starter_template.xlsx
+++ b/templates/dev_templates/starter_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\mathcad_auto\templates\dev_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001F1A37-DCD2-4181-AA20-CE55C4090B30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512BC8D9-9187-4839-B159-F5B377A8EEB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19196" xr2:uid="{9B97A033-A49C-4F03-8482-3DF783EAAC46}"/>
   </bookViews>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t xml:space="preserve">Anesthesia Machine </t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>Note: use underscores instead of spaces. Headers without units will be processed as unitless.</t>
+  </si>
+  <si>
+    <t>Ceiling</t>
   </si>
 </sst>
 </file>
@@ -1093,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873E901D-60E5-4378-B586-84E02EFBE42E}">
   <dimension ref="A1:S824"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1498,24 +1501,63 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1234</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1111</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>800</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1.121</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K10" s="4">
+        <v>15</v>
+      </c>
+      <c r="L10" s="4">
+        <v>75</v>
+      </c>
+      <c r="M10" s="4">
+        <v>64</v>
+      </c>
+      <c r="N10" s="4">
+        <v>64</v>
+      </c>
+      <c r="O10" s="4">
+        <v>14</v>
+      </c>
+      <c r="P10" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>45</v>
+      </c>
+      <c r="R10" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0.66666599999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11"/>
@@ -17809,7 +17851,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>

--- a/templates/dev_templates/starter_template.xlsx
+++ b/templates/dev_templates/starter_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\mathcad_auto\templates\dev_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512BC8D9-9187-4839-B159-F5B377A8EEB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CAC088-FFAB-4CB8-A788-9F6572FEDB57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19196" xr2:uid="{9B97A033-A49C-4F03-8482-3DF783EAAC46}"/>
+    <workbookView xWindow="1440" yWindow="1019" windowWidth="17606" windowHeight="14087" xr2:uid="{9B97A033-A49C-4F03-8482-3DF783EAAC46}"/>
   </bookViews>
   <sheets>
     <sheet name="values" sheetId="1" r:id="rId1"/>
@@ -1096,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873E901D-60E5-4378-B586-84E02EFBE42E}">
   <dimension ref="A1:S824"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
